--- a/Documentación/TercerHito/DS/Tabla de eventos.xlsx
+++ b/Documentación/TercerHito/DS/Tabla de eventos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoTrezza\Google Drive\PS\DFD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Griselda\Documents\MEGAsync\UNLa\Proyecto de Software\GestorDePedidos\Documentación\TercerHito\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4C1AFD-2230-4419-A80F-822973BB67C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" xr2:uid="{2451517F-81C8-40EC-9D65-2832A4776139}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -114,9 +113,6 @@
     <t>Solicitud de tutoria</t>
   </si>
   <si>
-    <t>Toturia creada - email</t>
-  </si>
-  <si>
     <t>Crear tutoria</t>
   </si>
   <si>
@@ -157,12 +153,15 @@
   </si>
   <si>
     <t>Ver estadisticas</t>
+  </si>
+  <si>
+    <t>Tuturia creada - email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,19 +275,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -299,8 +292,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,11 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B439048-9925-47E2-9E58-EAE7D6917B5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -634,16 +636,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -663,7 +665,7 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -759,10 +761,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,16 +775,16 @@
         <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,10 +795,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -809,32 +811,32 @@
         <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
